--- a/biology/Botanique/Bois_de_Païolive/Bois_de_Païolive.xlsx
+++ b/biology/Botanique/Bois_de_Païolive/Bois_de_Païolive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_de_Pa%C3%AFolive</t>
+          <t>Bois_de_Païolive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois de Païolive est une forêt ancienne qui s'étend sur 16 km2 dans le sud du département de l'Ardèche. Ce bois possède une forte valeur patrimoniale du fait de sa grande richesse en matière de biodiversité, de naturalité ainsi que par les paysages de pierre traversés par les gorges du Chassezac.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_de_Pa%C3%AFolive</t>
+          <t>Bois_de_Païolive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de Païolive se situe à l'extrême sud du département de l'Ardèche (Rhône-Alpes), au pied des Cévennes, en limite des départements du Gard et de la Lozère, situés en Languedoc-Roussillon. À la périphérie des Vans, et à une trentaine de kilomètres au sud-ouest d'Aubenas, le bois de Païolive s'étend sur les trois communes des Vans, de Banne et de Berrias-et-Casteljau.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bois_de_Pa%C3%AFolive</t>
+          <t>Bois_de_Païolive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paléolithique
-Par sa position géographique, à proximité de grandes voies de passages naturels, et de son climat clément, l'Ardèche méridionale a toujours été un lieu privilégié ayant permis l'implantation des populations depuis la plus lointaine Préhistoire. Les fouilles, au niveau de l'abri des pêcheurs, montrent que concomitamment aux gorges de l'Ardèche, les gorges du Chassezac ont également abrité au Paléolithique des hominidés lors des périodes glaciaires. Néandertal d'abord, il y a 52 000 ans, puis Homo sapiens (Cro-Magnon) ensuite.
-Néolithique
-Durant l'âge des métaux, les nombreux dolmens de l'Ardèche, et donc ceux de Païolive, ainsi que les vestiges de poterie sont les témoins principaux des débuts de l'agriculture et la poterie puis de l'âge des métaux dans les environs.
-Temps historiques
-Les nombreux vestiges d'aménagements divers en pierre sèche nous montrent une population rurale habitant et exploitant essentiellement la périphérie du bois, dans la plaine, près des cours d'eau mais aussi exploitant les lieux les plus reculés, les plus secs et les plus rocheux.
-Les héros du roman de Firmin Boissin, Jan de la Lune sont passés par l'ermitage Saint-Eugène, la Denaille de la Padelle et la Gleysasse après la dispersion du dernier camp de Jalès. Les terrasses, murettes, capitelles, béalières sont les témoins d'un passé rural parfois fort difficile.
+          <t>Paléolithique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par sa position géographique, à proximité de grandes voies de passages naturels, et de son climat clément, l'Ardèche méridionale a toujours été un lieu privilégié ayant permis l'implantation des populations depuis la plus lointaine Préhistoire. Les fouilles, au niveau de l'abri des pêcheurs, montrent que concomitamment aux gorges de l'Ardèche, les gorges du Chassezac ont également abrité au Paléolithique des hominidés lors des périodes glaciaires. Néandertal d'abord, il y a 52 000 ans, puis Homo sapiens (Cro-Magnon) ensuite.
 </t>
         </is>
       </c>
@@ -562,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bois_de_Pa%C3%AFolive</t>
+          <t>Bois_de_Païolive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,81 +591,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Néolithique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant l'âge des métaux, les nombreux dolmens de l'Ardèche, et donc ceux de Païolive, ainsi que les vestiges de poterie sont les témoins principaux des débuts de l'agriculture et la poterie puis de l'âge des métaux dans les environs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bois_de_Païolive</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Temps historiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nombreux vestiges d'aménagements divers en pierre sèche nous montrent une population rurale habitant et exploitant essentiellement la périphérie du bois, dans la plaine, près des cours d'eau mais aussi exploitant les lieux les plus reculés, les plus secs et les plus rocheux.
+Les héros du roman de Firmin Boissin, Jan de la Lune sont passés par l'ermitage Saint-Eugène, la Denaille de la Padelle et la Gleysasse après la dispersion du dernier camp de Jalès. Les terrasses, murettes, capitelles, béalières sont les témoins d'un passé rural parfois fort difficile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bois_de_Païolive</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Milieu naturel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de Païolive est un site géologique remarquable mais aussi un haut-lieu de la biodiversité et de la naturalité en Europe. Ce vaste secteur se compose d'une mosaïque de milieux naturels offrant un havre de paix et de protection à de très nombreuses espèces animales et végétales.
 Datant du Jurassique (180 millions d'années), ce milieu calcaire karstique « à caractère ruiniforme » est issu de l'érosion des calcaires. Ce phénomène a donné naissance à des formes naturelles surréalistes, comme des gorges profondes creusées par le Chassezac, rivière descendant de Lozère ; des fractures et diaclases diverses créant de superbes lapiaz ; ou des chaos minéral et végétal aux formes tourmentées, véritables labyrinthes de sculptures naturelles.
 Les milieux naturels sont très variés, on note notamment la présence de milieux aquatiques autour des berges du Chassezac, mais aussi près des ruisseaux du plateau calcaire, avec des végétaux aux bords des rivages sous forme de ripisylve. Des milieux rupestres, des hautes falaises et des forêts anciennes de chêne blanc et de chêne vert s'ajoutent à ces zones humides, ainsi que
 des garrigues et pelouses sèches sur les affleurements calcaires arides.
-Le sous-sol est parsemé de grottes et de résurgences, reliées par plusieurs réseaux de galeries souterraines. Le premier géologue à les avoir décrit est Jules de Malbos[1],[2].
+Le sous-sol est parsemé de grottes et de résurgences, reliées par plusieurs réseaux de galeries souterraines. Le premier géologue à les avoir décrit est Jules de Malbos,.
 Le hameau de Berrias, au sein de la commune de Berrias-et-Casteljau, sur lequel a été étudiée une roche calcaire particulière, a donné son nom à un étage géologique : le berriasien.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bois_de_Pa%C3%AFolive</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bois_de_Païolive</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Païolive est protégé par la loi depuis 1934[3]. 
-Il est classé en  zone naturelle d'intérêt écologique, faunistique et floristique de type I sous le numéro régional no 07170001[4]
-, site d'importance communautaire Natura 2000[5],
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Païolive est protégé par la loi depuis 1934. 
+Il est classé en  zone naturelle d'intérêt écologique, faunistique et floristique de type I sous le numéro régional no 07170001
+, site d'importance communautaire Natura 2000,
 et Espace Naturel Sensible.
 De nombreuses espèces végétales et animales y sont régulièrement étudiées, voire découvertes.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bois_de_Pa%C3%AFolive</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bois_de_Païolive</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Flore</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le site compte plusieurs espèces endémiques rares protégées.
 Centaurée presque blanchâtre : Centaurea maculosa subsp. subalbida
@@ -663,67 +758,109 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bois_de_Pa%C3%AFolive</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bois_de_Païolive</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Faune</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammifères
-On note la présence du Castor d'Europe et de plusieurs espèces de chiroptères.
-Oiseaux
-Le bois de Païolive est un site de nidification d'espèces rares comme le martin-pêcheur d'Europe, le grand-duc d'Europe, le rollier d'Europe, le pic épeichette, le faucon hobereau, l'alouette lulu, le milan noir, le merle bleu, le balbuzard pêcheur, la fauvette orphée et la huppe fasciée.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bois_de_Pa%C3%AFolive</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On note la présence du Castor d'Europe et de plusieurs espèces de chiroptères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bois_de_Païolive</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Païolive est un site de nidification d'espèces rares comme le martin-pêcheur d'Europe, le grand-duc d'Europe, le rollier d'Europe, le pic épeichette, le faucon hobereau, l'alouette lulu, le milan noir, le merle bleu, le balbuzard pêcheur, la fauvette orphée et la huppe fasciée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bois_de_Païolive</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_de_Pa%C3%AFolive</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Activités sportives</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Païolive comporte plusieurs sentiers pédestres balisés, comme le « sentier de la Vierge », le « sentier de la corniche » ou la « boucle du randonneur »[6]. La pratique de la spéléologie est facilitée par la présence de grottes reliées par plusieurs réseaux de galeries souterraines.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Païolive comporte plusieurs sentiers pédestres balisés, comme le « sentier de la Vierge », le « sentier de la corniche » ou la « boucle du randonneur ». La pratique de la spéléologie est facilitée par la présence de grottes reliées par plusieurs réseaux de galeries souterraines.
 </t>
         </is>
       </c>
